--- a/Assets/ScriptableObjects/Item/아이템데이터베이스.xlsx
+++ b/Assets/ScriptableObjects/Item/아이템데이터베이스.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\IMPirate\Assets\ScriptableObjects\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D08EA1AA-DF2D-4831-A8C1-A07B1F729A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5A4D23-674E-4F04-89D2-4B6714E3FF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17220" yWindow="4200" windowWidth="28800" windowHeight="15435" xr2:uid="{5C0F5CBE-DE9E-4F61-A727-AF55B0B8AC29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{5C0F5CBE-DE9E-4F61-A727-AF55B0B8AC29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,10 @@
   </si>
   <si>
     <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,12 +503,15 @@
   <dimension ref="B1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
